--- a/data/pca/factorExposure/factorExposure_2015-07-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02147060800547589</v>
+        <v>0.01408994280770874</v>
       </c>
       <c r="C2">
-        <v>-0.02938619509571723</v>
+        <v>-0.04787886438834846</v>
       </c>
       <c r="D2">
-        <v>0.1330570089323237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1403933099833746</v>
+      </c>
+      <c r="E2">
+        <v>0.0001847693268014908</v>
+      </c>
+      <c r="F2">
+        <v>-0.01026543620516006</v>
+      </c>
+      <c r="G2">
+        <v>0.1287125069590903</v>
+      </c>
+      <c r="H2">
+        <v>-0.03290307904189649</v>
+      </c>
+      <c r="I2">
+        <v>-0.04241504774360348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.006963060137108091</v>
+        <v>-0.009551920361719842</v>
       </c>
       <c r="C3">
-        <v>-0.02650884273048386</v>
+        <v>-0.01557851863085123</v>
       </c>
       <c r="D3">
-        <v>0.01527896755133372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01323675451330568</v>
+      </c>
+      <c r="E3">
+        <v>-0.01972212983373036</v>
+      </c>
+      <c r="F3">
+        <v>0.01520723742915145</v>
+      </c>
+      <c r="G3">
+        <v>-0.001142529991001208</v>
+      </c>
+      <c r="H3">
+        <v>-0.0111621862672867</v>
+      </c>
+      <c r="I3">
+        <v>-0.01045742211613738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03635353184365816</v>
+        <v>0.02044180275933086</v>
       </c>
       <c r="C4">
-        <v>-0.06963809929159409</v>
+        <v>-0.09211867298356542</v>
       </c>
       <c r="D4">
-        <v>0.1388600965760953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1493054162130044</v>
+      </c>
+      <c r="E4">
+        <v>-0.01547464355316387</v>
+      </c>
+      <c r="F4">
+        <v>-0.09268573117109576</v>
+      </c>
+      <c r="G4">
+        <v>0.01552203285977634</v>
+      </c>
+      <c r="H4">
+        <v>-0.04023707392974755</v>
+      </c>
+      <c r="I4">
+        <v>-0.01322034784851043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02722331706201644</v>
+        <v>0.02957237348160976</v>
       </c>
       <c r="C6">
-        <v>-0.01422708352103135</v>
+        <v>-0.03003229830783137</v>
       </c>
       <c r="D6">
-        <v>0.1451030714389603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1286302488355887</v>
+      </c>
+      <c r="E6">
+        <v>0.03975167676561339</v>
+      </c>
+      <c r="F6">
+        <v>-0.04703902781263989</v>
+      </c>
+      <c r="G6">
+        <v>0.0356451381776137</v>
+      </c>
+      <c r="H6">
+        <v>-0.02497392052730195</v>
+      </c>
+      <c r="I6">
+        <v>0.02065283511073546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009003565395467863</v>
+        <v>0.01126427189600099</v>
       </c>
       <c r="C7">
-        <v>-0.02477943354969082</v>
+        <v>-0.03408554221400631</v>
       </c>
       <c r="D7">
-        <v>0.1155934700682703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.1063090544097875</v>
+      </c>
+      <c r="E7">
+        <v>0.04962522122984969</v>
+      </c>
+      <c r="F7">
+        <v>-0.007545075055525894</v>
+      </c>
+      <c r="G7">
+        <v>0.02411309569271701</v>
+      </c>
+      <c r="H7">
+        <v>-0.0631435829636125</v>
+      </c>
+      <c r="I7">
+        <v>0.0316288976718681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002451861000037861</v>
+        <v>-0.004981525787321037</v>
       </c>
       <c r="C8">
-        <v>-0.02730408985861466</v>
+        <v>-0.03423435849814711</v>
       </c>
       <c r="D8">
-        <v>0.0830134718926374</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08259125462512378</v>
+      </c>
+      <c r="E8">
+        <v>0.01822273158073613</v>
+      </c>
+      <c r="F8">
+        <v>-0.03947043135969054</v>
+      </c>
+      <c r="G8">
+        <v>0.06450867134060508</v>
+      </c>
+      <c r="H8">
+        <v>0.01549536633056623</v>
+      </c>
+      <c r="I8">
+        <v>0.0237198387820767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03415371358140891</v>
+        <v>0.01767932727695838</v>
       </c>
       <c r="C9">
-        <v>-0.06321502736552985</v>
+        <v>-0.08120228182987735</v>
       </c>
       <c r="D9">
-        <v>0.1301244827656439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1233463907900942</v>
+      </c>
+      <c r="E9">
+        <v>-0.007538188581047144</v>
+      </c>
+      <c r="F9">
+        <v>-0.05510893528273452</v>
+      </c>
+      <c r="G9">
+        <v>0.004617021858774138</v>
+      </c>
+      <c r="H9">
+        <v>-0.04670638090165195</v>
+      </c>
+      <c r="I9">
+        <v>-0.003314439235918334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1567927434318077</v>
+        <v>0.220385683724947</v>
       </c>
       <c r="C10">
-        <v>0.175895950595146</v>
+        <v>0.1134430896513077</v>
       </c>
       <c r="D10">
-        <v>0.01327993189511001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001686446852148979</v>
+      </c>
+      <c r="E10">
+        <v>-0.0225759283209126</v>
+      </c>
+      <c r="F10">
+        <v>-0.04100042244236404</v>
+      </c>
+      <c r="G10">
+        <v>-0.02200947601897039</v>
+      </c>
+      <c r="H10">
+        <v>0.06632634686299345</v>
+      </c>
+      <c r="I10">
+        <v>0.1263198336065998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02201465892597392</v>
+        <v>0.01123115627459385</v>
       </c>
       <c r="C11">
-        <v>-0.04247086442943474</v>
+        <v>-0.052727918411615</v>
       </c>
       <c r="D11">
-        <v>0.05294397074462843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.04797565015997744</v>
+      </c>
+      <c r="E11">
+        <v>0.02022006504293518</v>
+      </c>
+      <c r="F11">
+        <v>0.01064795825470692</v>
+      </c>
+      <c r="G11">
+        <v>0.01235536001404069</v>
+      </c>
+      <c r="H11">
+        <v>-0.04202780786722386</v>
+      </c>
+      <c r="I11">
+        <v>-0.01904046739090738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02405316513048657</v>
+        <v>0.01254635209276116</v>
       </c>
       <c r="C12">
-        <v>-0.04095892578226901</v>
+        <v>-0.04919565793218524</v>
       </c>
       <c r="D12">
-        <v>0.06597698126382787</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05151483713485832</v>
+      </c>
+      <c r="E12">
+        <v>0.01410900136488369</v>
+      </c>
+      <c r="F12">
+        <v>0.01582250379899933</v>
+      </c>
+      <c r="G12">
+        <v>0.003723464296225336</v>
+      </c>
+      <c r="H12">
+        <v>-0.07203439484371704</v>
+      </c>
+      <c r="I12">
+        <v>-0.007998697470704173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007370602611940224</v>
+        <v>0.006923672680193243</v>
       </c>
       <c r="C13">
-        <v>-0.02961661764928597</v>
+        <v>-0.04636681431207944</v>
       </c>
       <c r="D13">
-        <v>0.1567494873004996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1562853525274817</v>
+      </c>
+      <c r="E13">
+        <v>0.03697462908060623</v>
+      </c>
+      <c r="F13">
+        <v>-0.03304676273273997</v>
+      </c>
+      <c r="G13">
+        <v>0.04849099942333421</v>
+      </c>
+      <c r="H13">
+        <v>-0.05986578085192131</v>
+      </c>
+      <c r="I13">
+        <v>0.05574817146904358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.002654570637824475</v>
+        <v>0.0005597955682253672</v>
       </c>
       <c r="C14">
-        <v>-0.02092429925332063</v>
+        <v>-0.02735042871611756</v>
       </c>
       <c r="D14">
-        <v>0.1090516479561945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1038389445716642</v>
+      </c>
+      <c r="E14">
+        <v>0.0232871829497847</v>
+      </c>
+      <c r="F14">
+        <v>-0.02379999615190071</v>
+      </c>
+      <c r="G14">
+        <v>0.06026613273241035</v>
+      </c>
+      <c r="H14">
+        <v>-0.09574581978275219</v>
+      </c>
+      <c r="I14">
+        <v>0.02754305378504405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0005924362757883778</v>
+        <v>-0.000809310437734389</v>
       </c>
       <c r="C15">
-        <v>-0.009548218996921855</v>
+        <v>-0.01837056773347905</v>
       </c>
       <c r="D15">
-        <v>0.02142489814336599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.05053001446520439</v>
+      </c>
+      <c r="E15">
+        <v>0.004558319120273069</v>
+      </c>
+      <c r="F15">
+        <v>-0.001089901903474652</v>
+      </c>
+      <c r="G15">
+        <v>0.0238359940839073</v>
+      </c>
+      <c r="H15">
+        <v>-0.007698071779524925</v>
+      </c>
+      <c r="I15">
+        <v>-0.02004783025346919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02184391873958177</v>
+        <v>0.0122710476214055</v>
       </c>
       <c r="C16">
-        <v>-0.03911499399570415</v>
+        <v>-0.04815607965837524</v>
       </c>
       <c r="D16">
-        <v>0.06274037671211952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.04876712527849827</v>
+      </c>
+      <c r="E16">
+        <v>0.01978869289462852</v>
+      </c>
+      <c r="F16">
+        <v>0.006498685008950063</v>
+      </c>
+      <c r="G16">
+        <v>0.005150680693272682</v>
+      </c>
+      <c r="H16">
+        <v>-0.05108543687047633</v>
+      </c>
+      <c r="I16">
+        <v>-0.02117123278712967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.005555207271447952</v>
+        <v>0.0004447476875628797</v>
       </c>
       <c r="C19">
-        <v>-0.02292077628576752</v>
+        <v>-0.02034809129623493</v>
       </c>
       <c r="D19">
-        <v>0.1357117243773375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.08788763581560874</v>
+      </c>
+      <c r="E19">
+        <v>-0.02148038216329224</v>
+      </c>
+      <c r="F19">
+        <v>-0.01096265109702143</v>
+      </c>
+      <c r="G19">
+        <v>0.0397125354250653</v>
+      </c>
+      <c r="H19">
+        <v>-0.06351992146296376</v>
+      </c>
+      <c r="I19">
+        <v>0.04125658646390011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.005081805855605073</v>
+        <v>0.005018344830811304</v>
       </c>
       <c r="C20">
-        <v>-0.02674979350223296</v>
+        <v>-0.03710077008599517</v>
       </c>
       <c r="D20">
-        <v>0.09211776384471546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09935186302427523</v>
+      </c>
+      <c r="E20">
+        <v>0.004012550811040135</v>
+      </c>
+      <c r="F20">
+        <v>-0.02753820978558397</v>
+      </c>
+      <c r="G20">
+        <v>0.0201239357865672</v>
+      </c>
+      <c r="H20">
+        <v>-0.05101342200625771</v>
+      </c>
+      <c r="I20">
+        <v>0.01608181307992028</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007416369430978724</v>
+        <v>0.003104819375553805</v>
       </c>
       <c r="C21">
-        <v>-0.03414750669495299</v>
+        <v>-0.04187985267511937</v>
       </c>
       <c r="D21">
-        <v>0.1737420526883499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1427048488963694</v>
+      </c>
+      <c r="E21">
+        <v>-0.006889783761452124</v>
+      </c>
+      <c r="F21">
+        <v>-0.07044356253295993</v>
+      </c>
+      <c r="G21">
+        <v>0.07274314548327647</v>
+      </c>
+      <c r="H21">
+        <v>-0.144825901664379</v>
+      </c>
+      <c r="I21">
+        <v>0.1098347302467233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0007795179425619227</v>
+        <v>-0.007121134007830408</v>
       </c>
       <c r="C22">
-        <v>-0.058711209264498</v>
+        <v>-0.07108882278908862</v>
       </c>
       <c r="D22">
-        <v>0.1977567323261852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2406889083404183</v>
+      </c>
+      <c r="E22">
+        <v>0.04310412943791117</v>
+      </c>
+      <c r="F22">
+        <v>-0.02884511255551805</v>
+      </c>
+      <c r="G22">
+        <v>0.1938918890975674</v>
+      </c>
+      <c r="H22">
+        <v>0.4863431843053413</v>
+      </c>
+      <c r="I22">
+        <v>-0.1238133008457239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.000560072665765555</v>
+        <v>-0.006683628599148724</v>
       </c>
       <c r="C23">
-        <v>-0.05917923999343323</v>
+        <v>-0.07197847193902207</v>
       </c>
       <c r="D23">
-        <v>0.1973317171677059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2413506624395048</v>
+      </c>
+      <c r="E23">
+        <v>0.04009476428149836</v>
+      </c>
+      <c r="F23">
+        <v>-0.02809099723076862</v>
+      </c>
+      <c r="G23">
+        <v>0.1925189088112073</v>
+      </c>
+      <c r="H23">
+        <v>0.4861951958773886</v>
+      </c>
+      <c r="I23">
+        <v>-0.1257486119011894</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02781066827199217</v>
+        <v>0.01256366837934759</v>
       </c>
       <c r="C24">
-        <v>-0.05684191524656245</v>
+        <v>-0.06427650864373557</v>
       </c>
       <c r="D24">
-        <v>0.07276864289187443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05746534222183472</v>
+      </c>
+      <c r="E24">
+        <v>0.02314431440134833</v>
+      </c>
+      <c r="F24">
+        <v>0.00282316486966991</v>
+      </c>
+      <c r="G24">
+        <v>0.01955018351089645</v>
+      </c>
+      <c r="H24">
+        <v>-0.07191790226498691</v>
+      </c>
+      <c r="I24">
+        <v>-0.01600030734388534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03143390709188353</v>
+        <v>0.01656757223876436</v>
       </c>
       <c r="C25">
-        <v>-0.04809886405185333</v>
+        <v>-0.06013198444498157</v>
       </c>
       <c r="D25">
-        <v>0.06670865823873276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05509936918720236</v>
+      </c>
+      <c r="E25">
+        <v>0.009981936538290487</v>
+      </c>
+      <c r="F25">
+        <v>0.007016909348918222</v>
+      </c>
+      <c r="G25">
+        <v>0.003792724075528843</v>
+      </c>
+      <c r="H25">
+        <v>-0.04385249253828358</v>
+      </c>
+      <c r="I25">
+        <v>-0.00937784497540012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.00548276634423289</v>
+        <v>0.006786055971371714</v>
       </c>
       <c r="C26">
-        <v>-0.01611371027904337</v>
+        <v>-0.0234367877342442</v>
       </c>
       <c r="D26">
-        <v>0.08220832936565625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07205966466812394</v>
+      </c>
+      <c r="E26">
+        <v>0.01924055655835271</v>
+      </c>
+      <c r="F26">
+        <v>-0.02728245235344172</v>
+      </c>
+      <c r="G26">
+        <v>0.03245095581458756</v>
+      </c>
+      <c r="H26">
+        <v>-0.07335276779625861</v>
+      </c>
+      <c r="I26">
+        <v>0.05135920279839276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2393524952772609</v>
+        <v>0.3145233234088939</v>
       </c>
       <c r="C28">
-        <v>0.2201792663139827</v>
+        <v>0.1271260764620163</v>
       </c>
       <c r="D28">
-        <v>0.01619737611819499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.008428852336627077</v>
+      </c>
+      <c r="E28">
+        <v>-0.04693948283570502</v>
+      </c>
+      <c r="F28">
+        <v>-0.04222671695817649</v>
+      </c>
+      <c r="G28">
+        <v>0.007696323030391691</v>
+      </c>
+      <c r="H28">
+        <v>0.03877044560758204</v>
+      </c>
+      <c r="I28">
+        <v>0.1364108895572031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002149714645045018</v>
+        <v>-0.001067298717168933</v>
       </c>
       <c r="C29">
-        <v>-0.02130373323408784</v>
+        <v>-0.02911362081070486</v>
       </c>
       <c r="D29">
-        <v>0.1020643516807071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1013126510676698</v>
+      </c>
+      <c r="E29">
+        <v>0.03492737437501862</v>
+      </c>
+      <c r="F29">
+        <v>-0.03236280472881781</v>
+      </c>
+      <c r="G29">
+        <v>0.0511416078919066</v>
+      </c>
+      <c r="H29">
+        <v>-0.0995203754464702</v>
+      </c>
+      <c r="I29">
+        <v>0.02487467876298057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02391777530904325</v>
+        <v>0.01852651514603509</v>
       </c>
       <c r="C30">
-        <v>-0.06100831697742416</v>
+        <v>-0.08084114031222289</v>
       </c>
       <c r="D30">
-        <v>0.1655696509391963</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1643720567636164</v>
+      </c>
+      <c r="E30">
+        <v>0.04078464346424661</v>
+      </c>
+      <c r="F30">
+        <v>-0.03351017174053771</v>
+      </c>
+      <c r="G30">
+        <v>0.04408494678244299</v>
+      </c>
+      <c r="H30">
+        <v>-0.027213578728365</v>
+      </c>
+      <c r="I30">
+        <v>-0.06076546445521945</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04420162095381742</v>
+        <v>0.01469113296328942</v>
       </c>
       <c r="C31">
-        <v>-0.08209218777592522</v>
+        <v>-0.08945507605674047</v>
       </c>
       <c r="D31">
-        <v>0.08208537000778378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04717341932680869</v>
+      </c>
+      <c r="E31">
+        <v>0.00704445558086377</v>
+      </c>
+      <c r="F31">
+        <v>-0.01630910995194275</v>
+      </c>
+      <c r="G31">
+        <v>0.01961260818975555</v>
+      </c>
+      <c r="H31">
+        <v>-0.04593361375026169</v>
+      </c>
+      <c r="I31">
+        <v>0.0672468370158351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01945982353422393</v>
+        <v>0.0131929329109443</v>
       </c>
       <c r="C32">
-        <v>-0.03662916998281608</v>
+        <v>-0.04170729155425625</v>
       </c>
       <c r="D32">
-        <v>0.09866865099738246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1075174025462904</v>
+      </c>
+      <c r="E32">
+        <v>-0.009282952597465411</v>
+      </c>
+      <c r="F32">
+        <v>-0.04302227185634788</v>
+      </c>
+      <c r="G32">
+        <v>0.03372225061761675</v>
+      </c>
+      <c r="H32">
+        <v>-0.030632543011648</v>
+      </c>
+      <c r="I32">
+        <v>0.0688687621809491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01660991093819539</v>
+        <v>0.01013355119507232</v>
       </c>
       <c r="C33">
-        <v>-0.04223071020017824</v>
+        <v>-0.05538315339314526</v>
       </c>
       <c r="D33">
-        <v>0.1524341786691534</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1331980381675469</v>
+      </c>
+      <c r="E33">
+        <v>0.01206166718561186</v>
+      </c>
+      <c r="F33">
+        <v>-0.02762785701205427</v>
+      </c>
+      <c r="G33">
+        <v>0.0404209768340531</v>
+      </c>
+      <c r="H33">
+        <v>-0.05156094627117121</v>
+      </c>
+      <c r="I33">
+        <v>0.02831617327703143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02751844117352978</v>
+        <v>0.01086089889031957</v>
       </c>
       <c r="C34">
-        <v>-0.05750271990194659</v>
+        <v>-0.06280027023927415</v>
       </c>
       <c r="D34">
-        <v>0.05217695897430562</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03524479825492134</v>
+      </c>
+      <c r="E34">
+        <v>0.02829656226587821</v>
+      </c>
+      <c r="F34">
+        <v>0.03535069344109846</v>
+      </c>
+      <c r="G34">
+        <v>0.01286749223988088</v>
+      </c>
+      <c r="H34">
+        <v>-0.05466789203818679</v>
+      </c>
+      <c r="I34">
+        <v>0.00553970742320533</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0008579770717548063</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004490689073046348</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01493074033137691</v>
+      </c>
+      <c r="E35">
+        <v>0.002454591810637845</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005775771931827847</v>
+      </c>
+      <c r="G35">
+        <v>0.0022308630246628</v>
+      </c>
+      <c r="H35">
+        <v>-0.008502211804012833</v>
+      </c>
+      <c r="I35">
+        <v>-0.004611379757696108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01062451901490423</v>
+        <v>0.01148731757935061</v>
       </c>
       <c r="C36">
-        <v>-0.004044243524816854</v>
+        <v>-0.01814352275985477</v>
       </c>
       <c r="D36">
-        <v>0.1006472757986777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08422724790611127</v>
+      </c>
+      <c r="E36">
+        <v>0.005888944350487364</v>
+      </c>
+      <c r="F36">
+        <v>-0.03672272494849841</v>
+      </c>
+      <c r="G36">
+        <v>0.02669438197345635</v>
+      </c>
+      <c r="H36">
+        <v>-0.05744909329542443</v>
+      </c>
+      <c r="I36">
+        <v>0.0310947329724312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.009800559636952496</v>
+        <v>0.01658873634118563</v>
       </c>
       <c r="C38">
-        <v>-0.01037609752740327</v>
+        <v>-0.01692858862934109</v>
       </c>
       <c r="D38">
-        <v>0.09659211461106233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08782588359406053</v>
+      </c>
+      <c r="E38">
+        <v>-0.01359876467317184</v>
+      </c>
+      <c r="F38">
+        <v>0.00830716425665272</v>
+      </c>
+      <c r="G38">
+        <v>0.04376810171109001</v>
+      </c>
+      <c r="H38">
+        <v>-0.03808224213355655</v>
+      </c>
+      <c r="I38">
+        <v>0.0486638560409115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0213222389478404</v>
+        <v>0.009418814706464019</v>
       </c>
       <c r="C39">
-        <v>-0.05729980728613619</v>
+        <v>-0.0745394511280625</v>
       </c>
       <c r="D39">
-        <v>0.1162728002352277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1100839734862489</v>
+      </c>
+      <c r="E39">
+        <v>0.04744166530774208</v>
+      </c>
+      <c r="F39">
+        <v>0.004608250781338696</v>
+      </c>
+      <c r="G39">
+        <v>0.02505164399829934</v>
+      </c>
+      <c r="H39">
+        <v>-0.09661263585762493</v>
+      </c>
+      <c r="I39">
+        <v>-0.04812798476563844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01862847539034869</v>
+        <v>0.013620486419583</v>
       </c>
       <c r="C40">
-        <v>-0.02180571019775296</v>
+        <v>-0.03045678813806096</v>
       </c>
       <c r="D40">
-        <v>0.1259811113492397</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1035862560805375</v>
+      </c>
+      <c r="E40">
+        <v>0.0435515690295669</v>
+      </c>
+      <c r="F40">
+        <v>0.01942971443252719</v>
+      </c>
+      <c r="G40">
+        <v>0.0990542331993466</v>
+      </c>
+      <c r="H40">
+        <v>-0.02165284024404683</v>
+      </c>
+      <c r="I40">
+        <v>0.04683946604000416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01501601747645187</v>
+        <v>0.01322968885380047</v>
       </c>
       <c r="C41">
-        <v>-0.007888236451078794</v>
+        <v>-0.01752349561924793</v>
       </c>
       <c r="D41">
-        <v>0.06942332647293668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04880846400746671</v>
+      </c>
+      <c r="E41">
+        <v>-0.02566908485920309</v>
+      </c>
+      <c r="F41">
+        <v>-0.01809551956189064</v>
+      </c>
+      <c r="G41">
+        <v>0.03937534420133989</v>
+      </c>
+      <c r="H41">
+        <v>-0.02979373181407283</v>
+      </c>
+      <c r="I41">
+        <v>0.05755732771471513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008274888529925225</v>
+        <v>0.006257097797680062</v>
       </c>
       <c r="C43">
-        <v>-0.01189355865924096</v>
+        <v>-0.01862883752653084</v>
       </c>
       <c r="D43">
-        <v>0.08678305122659431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.06347632801248872</v>
+      </c>
+      <c r="E43">
+        <v>-0.01002734588719653</v>
+      </c>
+      <c r="F43">
+        <v>-0.0177173675260964</v>
+      </c>
+      <c r="G43">
+        <v>0.0466862726433751</v>
+      </c>
+      <c r="H43">
+        <v>-0.0602345605020468</v>
+      </c>
+      <c r="I43">
+        <v>0.05485122584411956</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01415821176607391</v>
+        <v>0.01150248465578904</v>
       </c>
       <c r="C44">
-        <v>-0.03210109456693369</v>
+        <v>-0.04467116429352474</v>
       </c>
       <c r="D44">
-        <v>0.1100665166322866</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1145924401027295</v>
+      </c>
+      <c r="E44">
+        <v>0.01794546886420741</v>
+      </c>
+      <c r="F44">
+        <v>-0.02193197523645236</v>
+      </c>
+      <c r="G44">
+        <v>0.02849432261409308</v>
+      </c>
+      <c r="H44">
+        <v>-0.03880921825573892</v>
+      </c>
+      <c r="I44">
+        <v>-0.04746321995063851</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.008505741885242817</v>
+        <v>-0.0004986327339892184</v>
       </c>
       <c r="C46">
-        <v>-0.02866000377129195</v>
+        <v>-0.03825049350854672</v>
       </c>
       <c r="D46">
-        <v>0.102958615104141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08770458820177723</v>
+      </c>
+      <c r="E46">
+        <v>0.02094560128960483</v>
+      </c>
+      <c r="F46">
+        <v>-0.03037982418273219</v>
+      </c>
+      <c r="G46">
+        <v>0.06206704863566954</v>
+      </c>
+      <c r="H46">
+        <v>-0.1105166002666302</v>
+      </c>
+      <c r="I46">
+        <v>0.04674885943704758</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08328605438039924</v>
+        <v>0.04107372813300345</v>
       </c>
       <c r="C47">
-        <v>-0.1045166377442821</v>
+        <v>-0.1208221111094833</v>
       </c>
       <c r="D47">
-        <v>0.06386230143950977</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03040309047246118</v>
+      </c>
+      <c r="E47">
+        <v>-0.01657610202891586</v>
+      </c>
+      <c r="F47">
+        <v>0.009737295071553298</v>
+      </c>
+      <c r="G47">
+        <v>-0.03220767296006811</v>
+      </c>
+      <c r="H47">
+        <v>-0.05210830412256028</v>
+      </c>
+      <c r="I47">
+        <v>0.1251644278464493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006456626736286099</v>
+        <v>0.007070882359822637</v>
       </c>
       <c r="C48">
-        <v>-0.01695241286334153</v>
+        <v>-0.0266842195283102</v>
       </c>
       <c r="D48">
-        <v>0.0968986209381532</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08585283609343276</v>
+      </c>
+      <c r="E48">
+        <v>-0.009807893344668217</v>
+      </c>
+      <c r="F48">
+        <v>-0.04019276213926894</v>
+      </c>
+      <c r="G48">
+        <v>0.04085904623882639</v>
+      </c>
+      <c r="H48">
+        <v>-0.07763586738556498</v>
+      </c>
+      <c r="I48">
+        <v>0.02741182989742912</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04269324172515446</v>
+        <v>0.01708170447743573</v>
       </c>
       <c r="C50">
-        <v>-0.06190859794247858</v>
+        <v>-0.07419572417989802</v>
       </c>
       <c r="D50">
-        <v>0.07812010512386207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05172723472672175</v>
+      </c>
+      <c r="E50">
+        <v>-0.0006448980473039167</v>
+      </c>
+      <c r="F50">
+        <v>-0.007629082825762492</v>
+      </c>
+      <c r="G50">
+        <v>0.03758098104860808</v>
+      </c>
+      <c r="H50">
+        <v>-0.02634287698038124</v>
+      </c>
+      <c r="I50">
+        <v>0.1120719915264419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004634686359548608</v>
+        <v>0.004612786759196429</v>
       </c>
       <c r="C51">
-        <v>-0.007162951169687458</v>
+        <v>-0.01754069967165545</v>
       </c>
       <c r="D51">
-        <v>0.06543248944987579</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.07006931245301214</v>
+      </c>
+      <c r="E51">
+        <v>0.03749319521747777</v>
+      </c>
+      <c r="F51">
+        <v>-0.03483655206376811</v>
+      </c>
+      <c r="G51">
+        <v>0.04769214404768165</v>
+      </c>
+      <c r="H51">
+        <v>-0.03125221211722998</v>
+      </c>
+      <c r="I51">
+        <v>0.004497519272598185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1074947826001419</v>
+        <v>0.06444398677153182</v>
       </c>
       <c r="C53">
-        <v>-0.1183593123922393</v>
+        <v>-0.150098830914927</v>
       </c>
       <c r="D53">
-        <v>0.01889085800733617</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00897639296737782</v>
+      </c>
+      <c r="E53">
+        <v>-0.03589074750128898</v>
+      </c>
+      <c r="F53">
+        <v>-0.05493483287387799</v>
+      </c>
+      <c r="G53">
+        <v>0.0043904377283993</v>
+      </c>
+      <c r="H53">
+        <v>-0.005378110822565443</v>
+      </c>
+      <c r="I53">
+        <v>0.08842266983212728</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01713808346384416</v>
+        <v>0.01111802645208016</v>
       </c>
       <c r="C54">
-        <v>-0.02350443670781099</v>
+        <v>-0.03829846730614393</v>
       </c>
       <c r="D54">
-        <v>0.1117690330246923</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08723770121812023</v>
+      </c>
+      <c r="E54">
+        <v>0.008675861505059071</v>
+      </c>
+      <c r="F54">
+        <v>0.0006303413412829076</v>
+      </c>
+      <c r="G54">
+        <v>0.05930745610343698</v>
+      </c>
+      <c r="H54">
+        <v>-0.06633920288351816</v>
+      </c>
+      <c r="I54">
+        <v>0.06319396009793236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09618040724995247</v>
+        <v>0.05136817046764672</v>
       </c>
       <c r="C55">
-        <v>-0.09920619189717185</v>
+        <v>-0.1255386142343705</v>
       </c>
       <c r="D55">
-        <v>0.007722955266928038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01791030884028764</v>
+      </c>
+      <c r="E55">
+        <v>-0.0003598056948744328</v>
+      </c>
+      <c r="F55">
+        <v>-0.02176993645405955</v>
+      </c>
+      <c r="G55">
+        <v>0.02436905574263058</v>
+      </c>
+      <c r="H55">
+        <v>0.004851621180375353</v>
+      </c>
+      <c r="I55">
+        <v>0.07760295451809605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1366715848056744</v>
+        <v>0.07424712252408877</v>
       </c>
       <c r="C56">
-        <v>-0.1288211034458096</v>
+        <v>-0.1779063392796204</v>
       </c>
       <c r="D56">
-        <v>0.0009416557948449137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02229597136760288</v>
+      </c>
+      <c r="E56">
+        <v>-0.03219032603399015</v>
+      </c>
+      <c r="F56">
+        <v>-0.01995761596031643</v>
+      </c>
+      <c r="G56">
+        <v>0.05039125026871824</v>
+      </c>
+      <c r="H56">
+        <v>0.02312620884735759</v>
+      </c>
+      <c r="I56">
+        <v>0.1000207726889315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01578899660710148</v>
+        <v>-0.0001654380237996209</v>
       </c>
       <c r="C58">
-        <v>-0.02191006058628383</v>
+        <v>-0.04482560193043576</v>
       </c>
       <c r="D58">
-        <v>0.2092420773454276</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2801659151147643</v>
+      </c>
+      <c r="E58">
+        <v>-0.0331497666604663</v>
+      </c>
+      <c r="F58">
+        <v>-0.08981565299693312</v>
+      </c>
+      <c r="G58">
+        <v>0.09086318270340238</v>
+      </c>
+      <c r="H58">
+        <v>0.1562821362255374</v>
+      </c>
+      <c r="I58">
+        <v>-0.06671985997974426</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1705872776827062</v>
+        <v>0.2413305981767156</v>
       </c>
       <c r="C59">
-        <v>0.1601001668405356</v>
+        <v>0.09008344186452541</v>
       </c>
       <c r="D59">
-        <v>0.05111227200541905</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.06092043531694118</v>
+      </c>
+      <c r="E59">
+        <v>-0.02892185967880279</v>
+      </c>
+      <c r="F59">
+        <v>-0.01064004927513068</v>
+      </c>
+      <c r="G59">
+        <v>-0.01519979494808628</v>
+      </c>
+      <c r="H59">
+        <v>0.02209538304263101</v>
+      </c>
+      <c r="I59">
+        <v>0.0260083829251159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2017180112236849</v>
+        <v>0.1608900217387842</v>
       </c>
       <c r="C60">
-        <v>-0.1049382762690413</v>
+        <v>-0.171147944350753</v>
       </c>
       <c r="D60">
-        <v>0.1602832574030101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.08648994138615659</v>
+      </c>
+      <c r="E60">
+        <v>0.236644897108346</v>
+      </c>
+      <c r="F60">
+        <v>0.1680609239198334</v>
+      </c>
+      <c r="G60">
+        <v>-0.2724173761640676</v>
+      </c>
+      <c r="H60">
+        <v>0.09833584736653019</v>
+      </c>
+      <c r="I60">
+        <v>-0.05178009978894755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0333965375188057</v>
+        <v>0.01726862217195329</v>
       </c>
       <c r="C61">
-        <v>-0.05559653987084201</v>
+        <v>-0.07160041470738879</v>
       </c>
       <c r="D61">
-        <v>0.1112232330364227</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08787757935007059</v>
+      </c>
+      <c r="E61">
+        <v>0.03664122695905038</v>
+      </c>
+      <c r="F61">
+        <v>0.01481899926812641</v>
+      </c>
+      <c r="G61">
+        <v>0.006628390881960868</v>
+      </c>
+      <c r="H61">
+        <v>-0.09563681866361262</v>
+      </c>
+      <c r="I61">
+        <v>0.0005403184621922682</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01010361306860816</v>
+        <v>0.004608208871715554</v>
       </c>
       <c r="C63">
-        <v>-0.02460474050418283</v>
+        <v>-0.03490952381670515</v>
       </c>
       <c r="D63">
-        <v>0.09470928834130933</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07332519485878161</v>
+      </c>
+      <c r="E63">
+        <v>0.02266265543947931</v>
+      </c>
+      <c r="F63">
+        <v>-0.02166957956334526</v>
+      </c>
+      <c r="G63">
+        <v>0.03456754165434803</v>
+      </c>
+      <c r="H63">
+        <v>-0.05074205157396552</v>
+      </c>
+      <c r="I63">
+        <v>0.01367640352316898</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06199493839955476</v>
+        <v>0.02770797339809671</v>
       </c>
       <c r="C64">
-        <v>-0.08286742678114577</v>
+        <v>-0.1034332114778802</v>
       </c>
       <c r="D64">
-        <v>0.0457928958094134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03638730716229466</v>
+      </c>
+      <c r="E64">
+        <v>0.02959433852800394</v>
+      </c>
+      <c r="F64">
+        <v>-0.02894870300354727</v>
+      </c>
+      <c r="G64">
+        <v>-0.004260066061857786</v>
+      </c>
+      <c r="H64">
+        <v>-0.1118305168773006</v>
+      </c>
+      <c r="I64">
+        <v>-0.0178039842198079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0287152031875225</v>
+        <v>0.02487199527281928</v>
       </c>
       <c r="C65">
-        <v>-0.01704553246218502</v>
+        <v>-0.03679106291279992</v>
       </c>
       <c r="D65">
-        <v>0.1196743014786937</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1108178402342646</v>
+      </c>
+      <c r="E65">
+        <v>0.03784695973027501</v>
+      </c>
+      <c r="F65">
+        <v>-0.004571413022922165</v>
+      </c>
+      <c r="G65">
+        <v>0.005256712517091651</v>
+      </c>
+      <c r="H65">
+        <v>-0.01970848242039202</v>
+      </c>
+      <c r="I65">
+        <v>0.01542577255319883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02585040575454072</v>
+        <v>0.00872338146768561</v>
       </c>
       <c r="C66">
-        <v>-0.0635601565747634</v>
+        <v>-0.08787722952974013</v>
       </c>
       <c r="D66">
-        <v>0.1216305671995717</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1316521518581643</v>
+      </c>
+      <c r="E66">
+        <v>0.03516222334776386</v>
+      </c>
+      <c r="F66">
+        <v>0.01466661344544219</v>
+      </c>
+      <c r="G66">
+        <v>0.02236891839849487</v>
+      </c>
+      <c r="H66">
+        <v>-0.05193749656961113</v>
+      </c>
+      <c r="I66">
+        <v>-0.05802685737155278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02942855696563516</v>
+        <v>0.02749311072590272</v>
       </c>
       <c r="C67">
-        <v>-0.02208278094365902</v>
+        <v>-0.03018195026788328</v>
       </c>
       <c r="D67">
-        <v>0.05182166609457104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03839027430614174</v>
+      </c>
+      <c r="E67">
+        <v>0.001587554305312229</v>
+      </c>
+      <c r="F67">
+        <v>0.02860420656768157</v>
+      </c>
+      <c r="G67">
+        <v>0.03680465781915577</v>
+      </c>
+      <c r="H67">
+        <v>-0.05358567365210412</v>
+      </c>
+      <c r="I67">
+        <v>0.03652605309711442</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2059199593078841</v>
+        <v>0.267185470596819</v>
       </c>
       <c r="C68">
-        <v>0.1736694725902349</v>
+        <v>0.0903790055299858</v>
       </c>
       <c r="D68">
-        <v>0.03589580665339912</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02845364296469937</v>
+      </c>
+      <c r="E68">
+        <v>0.006912295926966954</v>
+      </c>
+      <c r="F68">
+        <v>-0.02511913675160948</v>
+      </c>
+      <c r="G68">
+        <v>0.03728635311113278</v>
+      </c>
+      <c r="H68">
+        <v>0.0608294422630748</v>
+      </c>
+      <c r="I68">
+        <v>0.1148149575376402</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06392933383170592</v>
+        <v>0.02772856508823393</v>
       </c>
       <c r="C69">
-        <v>-0.1143699624060237</v>
+        <v>-0.1210993912278959</v>
       </c>
       <c r="D69">
-        <v>0.08669555706198091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04546831184488951</v>
+      </c>
+      <c r="E69">
+        <v>0.002977707094592454</v>
+      </c>
+      <c r="F69">
+        <v>0.0125727754023425</v>
+      </c>
+      <c r="G69">
+        <v>-0.0144872295852563</v>
+      </c>
+      <c r="H69">
+        <v>-0.04792356014223333</v>
+      </c>
+      <c r="I69">
+        <v>0.07920315483943362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2086282028331824</v>
+        <v>0.2667125502848156</v>
       </c>
       <c r="C71">
-        <v>0.1890741065736423</v>
+        <v>0.1028104124233813</v>
       </c>
       <c r="D71">
-        <v>0.03306787719188092</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02104756573391187</v>
+      </c>
+      <c r="E71">
+        <v>-0.007658352584609913</v>
+      </c>
+      <c r="F71">
+        <v>-0.01764838534841211</v>
+      </c>
+      <c r="G71">
+        <v>0.04004906006457596</v>
+      </c>
+      <c r="H71">
+        <v>0.01138738622691647</v>
+      </c>
+      <c r="I71">
+        <v>0.1733724549175746</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1073804054170039</v>
+        <v>0.06478714298283453</v>
       </c>
       <c r="C72">
-        <v>-0.0713071689015518</v>
+        <v>-0.1199494912079754</v>
       </c>
       <c r="D72">
-        <v>0.0948156860540947</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0692133935580692</v>
+      </c>
+      <c r="E72">
+        <v>0.08853416488625841</v>
+      </c>
+      <c r="F72">
+        <v>0.01155629587459597</v>
+      </c>
+      <c r="G72">
+        <v>0.006841368311917079</v>
+      </c>
+      <c r="H72">
+        <v>-0.05323237809275199</v>
+      </c>
+      <c r="I72">
+        <v>-0.04466755295526546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1767915489350329</v>
+        <v>0.1440213882217529</v>
       </c>
       <c r="C73">
-        <v>-0.05598513384970889</v>
+        <v>-0.1306316194976451</v>
       </c>
       <c r="D73">
-        <v>0.2072750138580025</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09229998261362279</v>
+      </c>
+      <c r="E73">
+        <v>0.408990930068711</v>
+      </c>
+      <c r="F73">
+        <v>0.2416791843092148</v>
+      </c>
+      <c r="G73">
+        <v>-0.4528434783484606</v>
+      </c>
+      <c r="H73">
+        <v>0.004291568792686649</v>
+      </c>
+      <c r="I73">
+        <v>-0.08585948529838196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1084041142416787</v>
+        <v>0.05869643083990093</v>
       </c>
       <c r="C74">
-        <v>-0.1080673161226482</v>
+        <v>-0.1386889674154519</v>
       </c>
       <c r="D74">
-        <v>-0.0191785970725649</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0359225289308821</v>
+      </c>
+      <c r="E74">
+        <v>-0.01929225942995029</v>
+      </c>
+      <c r="F74">
+        <v>-0.04998206216421879</v>
+      </c>
+      <c r="G74">
+        <v>0.002843626675148472</v>
+      </c>
+      <c r="H74">
+        <v>0.0104766977842047</v>
+      </c>
+      <c r="I74">
+        <v>0.09711106596470709</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2444977117002124</v>
+        <v>0.1401102295696945</v>
       </c>
       <c r="C75">
-        <v>-0.1909077433427437</v>
+        <v>-0.2635670003274371</v>
       </c>
       <c r="D75">
-        <v>-0.1061303401612589</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.134631711901342</v>
+      </c>
+      <c r="E75">
+        <v>-0.08387172479279953</v>
+      </c>
+      <c r="F75">
+        <v>0.0325142195777677</v>
+      </c>
+      <c r="G75">
+        <v>0.08685510253692058</v>
+      </c>
+      <c r="H75">
+        <v>0.0271319827088838</v>
+      </c>
+      <c r="I75">
+        <v>0.09184349739784041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1468993266785998</v>
+        <v>0.07720968717242938</v>
       </c>
       <c r="C76">
-        <v>-0.135029235147016</v>
+        <v>-0.1795639615913411</v>
       </c>
       <c r="D76">
-        <v>0.01329447637349863</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02625939237426194</v>
+      </c>
+      <c r="E76">
+        <v>-0.03344390779054301</v>
+      </c>
+      <c r="F76">
+        <v>-0.01115517210227033</v>
+      </c>
+      <c r="G76">
+        <v>0.06342744720731994</v>
+      </c>
+      <c r="H76">
+        <v>-0.01330331694871115</v>
+      </c>
+      <c r="I76">
+        <v>0.1028551200086992</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02616790205753051</v>
+        <v>0.0382678063386426</v>
       </c>
       <c r="C77">
-        <v>-0.08380379703025327</v>
+        <v>-0.09484857424041207</v>
       </c>
       <c r="D77">
-        <v>0.06594501155613317</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2518272546553532</v>
+      </c>
+      <c r="E77">
+        <v>-0.7438699769741091</v>
+      </c>
+      <c r="F77">
+        <v>0.3555696046946255</v>
+      </c>
+      <c r="G77">
+        <v>-0.3729703109304665</v>
+      </c>
+      <c r="H77">
+        <v>0.1537610593136817</v>
+      </c>
+      <c r="I77">
+        <v>0.01772009668721759</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02504771445584502</v>
+        <v>0.01675660249106004</v>
       </c>
       <c r="C78">
-        <v>-0.07322244779329654</v>
+        <v>-0.08531533128273887</v>
       </c>
       <c r="D78">
-        <v>0.1613064548762792</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1408155577842229</v>
+      </c>
+      <c r="E78">
+        <v>0.04096586291597432</v>
+      </c>
+      <c r="F78">
+        <v>-0.04062622277172646</v>
+      </c>
+      <c r="G78">
+        <v>0.03044368412600003</v>
+      </c>
+      <c r="H78">
+        <v>-0.01629101651668434</v>
+      </c>
+      <c r="I78">
+        <v>-0.005615028585859477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08136109695948425</v>
+        <v>0.04045633843402814</v>
       </c>
       <c r="C79">
-        <v>-0.147749566920422</v>
+        <v>-0.1723976198507327</v>
       </c>
       <c r="D79">
-        <v>-0.1003540421318802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05452335082596527</v>
+      </c>
+      <c r="E79">
+        <v>-0.1231768840768449</v>
+      </c>
+      <c r="F79">
+        <v>-0.799641242772585</v>
+      </c>
+      <c r="G79">
+        <v>-0.4505762846135106</v>
+      </c>
+      <c r="H79">
+        <v>0.07925284953630886</v>
+      </c>
+      <c r="I79">
+        <v>-0.1615434303847337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009811734066864633</v>
+        <v>0.002184423840028044</v>
       </c>
       <c r="C80">
-        <v>-0.0475310146021805</v>
+        <v>-0.04990501827971381</v>
       </c>
       <c r="D80">
-        <v>0.04821807320533105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04789425981396413</v>
+      </c>
+      <c r="E80">
+        <v>0.01892441880503627</v>
+      </c>
+      <c r="F80">
+        <v>-0.007133282094642031</v>
+      </c>
+      <c r="G80">
+        <v>0.04634120866031538</v>
+      </c>
+      <c r="H80">
+        <v>-5.259907900008155e-05</v>
+      </c>
+      <c r="I80">
+        <v>0.04978233254814825</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1269278083844406</v>
+        <v>0.06205897048072659</v>
       </c>
       <c r="C81">
-        <v>-0.1276278483284169</v>
+        <v>-0.1621319922057016</v>
       </c>
       <c r="D81">
-        <v>-0.06360434491156769</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07660722971492641</v>
+      </c>
+      <c r="E81">
+        <v>-0.0702351408402693</v>
+      </c>
+      <c r="F81">
+        <v>-0.04708155389358747</v>
+      </c>
+      <c r="G81">
+        <v>0.06025542238635419</v>
+      </c>
+      <c r="H81">
+        <v>-0.04168066406506946</v>
+      </c>
+      <c r="I81">
+        <v>0.1382066315244365</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2538969333223836</v>
+        <v>0.119564970550805</v>
       </c>
       <c r="C82">
-        <v>-0.289237254751039</v>
+        <v>-0.323123678284705</v>
       </c>
       <c r="D82">
-        <v>-0.2149456757865386</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2240753346497825</v>
+      </c>
+      <c r="E82">
+        <v>-0.03988557170843628</v>
+      </c>
+      <c r="F82">
+        <v>0.1106927282061436</v>
+      </c>
+      <c r="G82">
+        <v>0.08578232960389642</v>
+      </c>
+      <c r="H82">
+        <v>-0.07124439634052962</v>
+      </c>
+      <c r="I82">
+        <v>0.08786768922622971</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002920335359470299</v>
+        <v>-0.003580767570139187</v>
       </c>
       <c r="C83">
-        <v>-0.05690466940504312</v>
+        <v>-0.04192346662533247</v>
       </c>
       <c r="D83">
-        <v>0.0295887592586191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04539746690896838</v>
+      </c>
+      <c r="E83">
+        <v>-0.09803166017877647</v>
+      </c>
+      <c r="F83">
+        <v>-0.006301674810987568</v>
+      </c>
+      <c r="G83">
+        <v>0.04191486768674547</v>
+      </c>
+      <c r="H83">
+        <v>-0.04218122820028708</v>
+      </c>
+      <c r="I83">
+        <v>-0.002386366814377954</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>9.543332745793088e-05</v>
+        <v>0.0004637565932696162</v>
       </c>
       <c r="C84">
-        <v>-0.0005060572021324283</v>
+        <v>-0.01341683473855261</v>
       </c>
       <c r="D84">
-        <v>0.0002378531119130082</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03632340757730159</v>
+      </c>
+      <c r="E84">
+        <v>-0.006901009344401104</v>
+      </c>
+      <c r="F84">
+        <v>-0.01699925193498812</v>
+      </c>
+      <c r="G84">
+        <v>0.04114404661862989</v>
+      </c>
+      <c r="H84">
+        <v>0.01928807414550764</v>
+      </c>
+      <c r="I84">
+        <v>-0.02496457815712777</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1508059969402047</v>
+        <v>0.07726917933908975</v>
       </c>
       <c r="C85">
-        <v>-0.1404001710634966</v>
+        <v>-0.1885565507831677</v>
       </c>
       <c r="D85">
-        <v>-0.04684531210233685</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08789913965501991</v>
+      </c>
+      <c r="E85">
+        <v>-0.001883683541892693</v>
+      </c>
+      <c r="F85">
+        <v>-0.07761643305688523</v>
+      </c>
+      <c r="G85">
+        <v>0.03265859487768259</v>
+      </c>
+      <c r="H85">
+        <v>0.01158503508124049</v>
+      </c>
+      <c r="I85">
+        <v>0.1287837260449431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01637082676573701</v>
+        <v>0.01229316227725159</v>
       </c>
       <c r="C86">
-        <v>-0.02016988295762659</v>
+        <v>-0.02953524445697582</v>
       </c>
       <c r="D86">
-        <v>0.08650119267534523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1006808797743907</v>
+      </c>
+      <c r="E86">
+        <v>-0.04216845395966921</v>
+      </c>
+      <c r="F86">
+        <v>0.02373777224873507</v>
+      </c>
+      <c r="G86">
+        <v>-0.02889252375397578</v>
+      </c>
+      <c r="H86">
+        <v>-0.01207615289127449</v>
+      </c>
+      <c r="I86">
+        <v>0.07252664171069415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01956136854041966</v>
+        <v>0.01730447471228755</v>
       </c>
       <c r="C87">
-        <v>-0.02190393189256211</v>
+        <v>-0.0479323942083591</v>
       </c>
       <c r="D87">
-        <v>0.1208645337459142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1454616911736104</v>
+      </c>
+      <c r="E87">
+        <v>-0.01185605072569451</v>
+      </c>
+      <c r="F87">
+        <v>-0.04857729005032003</v>
+      </c>
+      <c r="G87">
+        <v>0.08392056826497904</v>
+      </c>
+      <c r="H87">
+        <v>-0.008220359672395757</v>
+      </c>
+      <c r="I87">
+        <v>-0.09130875936696335</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05862373122563905</v>
+        <v>0.03383617040585656</v>
       </c>
       <c r="C88">
-        <v>-0.04868196006909507</v>
+        <v>-0.06820691443317227</v>
       </c>
       <c r="D88">
-        <v>0.04968463893600593</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01477400629065945</v>
+      </c>
+      <c r="E88">
+        <v>0.01348103004903742</v>
+      </c>
+      <c r="F88">
+        <v>-0.03164303174707658</v>
+      </c>
+      <c r="G88">
+        <v>0.02128566740518826</v>
+      </c>
+      <c r="H88">
+        <v>-0.03709144384345764</v>
+      </c>
+      <c r="I88">
+        <v>0.07352095198563584</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3112552782182588</v>
+        <v>0.4047212668196588</v>
       </c>
       <c r="C89">
-        <v>0.3451907800449958</v>
+        <v>0.1966293089089637</v>
       </c>
       <c r="D89">
-        <v>0.04013526999197164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02985334441542017</v>
+      </c>
+      <c r="E89">
+        <v>-0.02949920775825453</v>
+      </c>
+      <c r="F89">
+        <v>-0.06315865266470316</v>
+      </c>
+      <c r="G89">
+        <v>0.08056491622695144</v>
+      </c>
+      <c r="H89">
+        <v>-0.1709320703380219</v>
+      </c>
+      <c r="I89">
+        <v>-0.4540701818967397</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2435570422600375</v>
+        <v>0.307875418210063</v>
       </c>
       <c r="C90">
-        <v>0.2513314509383451</v>
+        <v>0.1330148365235877</v>
       </c>
       <c r="D90">
-        <v>0.03001917309323026</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02931127346947686</v>
+      </c>
+      <c r="E90">
+        <v>-0.01381026617105609</v>
+      </c>
+      <c r="F90">
+        <v>0.01129391784576276</v>
+      </c>
+      <c r="G90">
+        <v>0.05563707440537324</v>
+      </c>
+      <c r="H90">
+        <v>0.04395584134564279</v>
+      </c>
+      <c r="I90">
+        <v>0.09562677298312917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1622088458450758</v>
+        <v>0.08504802272815586</v>
       </c>
       <c r="C91">
-        <v>-0.1763978684173045</v>
+        <v>-0.206274338148502</v>
       </c>
       <c r="D91">
-        <v>-0.1019457589007542</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.108634805365535</v>
+      </c>
+      <c r="E91">
+        <v>-0.07112025589012022</v>
+      </c>
+      <c r="F91">
+        <v>-0.07435867336202112</v>
+      </c>
+      <c r="G91">
+        <v>0.007649563883200775</v>
+      </c>
+      <c r="H91">
+        <v>0.004814682377537482</v>
+      </c>
+      <c r="I91">
+        <v>0.1233724992831475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2193791139702767</v>
+        <v>0.3184183691379095</v>
       </c>
       <c r="C92">
-        <v>0.2586513407864838</v>
+        <v>0.166438184244341</v>
       </c>
       <c r="D92">
-        <v>-0.04813453343047119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.005870772740991855</v>
+      </c>
+      <c r="E92">
+        <v>-0.08182300139475172</v>
+      </c>
+      <c r="F92">
+        <v>-0.02805349608735192</v>
+      </c>
+      <c r="G92">
+        <v>0.04881626291898621</v>
+      </c>
+      <c r="H92">
+        <v>-0.005352039080454176</v>
+      </c>
+      <c r="I92">
+        <v>-0.07532055899257525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2705004026122315</v>
+        <v>0.3259383036866492</v>
       </c>
       <c r="C93">
-        <v>0.2540768565788725</v>
+        <v>0.133869891227281</v>
       </c>
       <c r="D93">
-        <v>0.01775900949198082</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01250243569135274</v>
+      </c>
+      <c r="E93">
+        <v>0.02765176663442826</v>
+      </c>
+      <c r="F93">
+        <v>-0.01249552011255621</v>
+      </c>
+      <c r="G93">
+        <v>-0.0114153866112297</v>
+      </c>
+      <c r="H93">
+        <v>0.01523146554471716</v>
+      </c>
+      <c r="I93">
+        <v>0.1372237930634685</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3117089941556984</v>
+        <v>0.1683586172601808</v>
       </c>
       <c r="C94">
-        <v>-0.2545712976785722</v>
+        <v>-0.349062143545272</v>
       </c>
       <c r="D94">
-        <v>-0.3598100825768391</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3574640515542675</v>
+      </c>
+      <c r="E94">
+        <v>-0.04609626329163616</v>
+      </c>
+      <c r="F94">
+        <v>0.1094239604512346</v>
+      </c>
+      <c r="G94">
+        <v>0.2782560198158174</v>
+      </c>
+      <c r="H94">
+        <v>0.1583063712631468</v>
+      </c>
+      <c r="I94">
+        <v>-0.4373924727264098</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02705327581985425</v>
+        <v>0.0252704383109544</v>
       </c>
       <c r="C95">
-        <v>-0.03722723503704426</v>
+        <v>-0.06043973093496315</v>
       </c>
       <c r="D95">
-        <v>0.08574769574461477</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1201109907437371</v>
+      </c>
+      <c r="E95">
+        <v>-0.206028383648331</v>
+      </c>
+      <c r="F95">
+        <v>0.07467331365850399</v>
+      </c>
+      <c r="G95">
+        <v>0.0149421295025262</v>
+      </c>
+      <c r="H95">
+        <v>-0.4392207383215109</v>
+      </c>
+      <c r="I95">
+        <v>-0.4152202745529196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0004941732304423718</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001946799829314759</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.0002959805326779859</v>
+      </c>
+      <c r="E97">
+        <v>0.0001692861608995651</v>
+      </c>
+      <c r="F97">
+        <v>0.002004862804525733</v>
+      </c>
+      <c r="G97">
+        <v>-0.001122531000509048</v>
+      </c>
+      <c r="H97">
+        <v>0.0001715089150269741</v>
+      </c>
+      <c r="I97">
+        <v>-0.0007244234560988378</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1517951283628845</v>
+        <v>0.1228278847870967</v>
       </c>
       <c r="C98">
-        <v>-0.07283188233248633</v>
+        <v>-0.1353427198500965</v>
       </c>
       <c r="D98">
-        <v>0.1174774029009171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.06341836563663002</v>
+      </c>
+      <c r="E98">
+        <v>0.2723058110140151</v>
+      </c>
+      <c r="F98">
+        <v>0.1604354945526313</v>
+      </c>
+      <c r="G98">
+        <v>-0.2769365544765582</v>
+      </c>
+      <c r="H98">
+        <v>0.05628507690178312</v>
+      </c>
+      <c r="I98">
+        <v>-0.07241660313341519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001712668086667558</v>
+        <v>-0.0006964519127778268</v>
       </c>
       <c r="C101">
-        <v>-0.02076144681948467</v>
+        <v>-0.02856338892834753</v>
       </c>
       <c r="D101">
-        <v>0.1023084837370292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1009383224799933</v>
+      </c>
+      <c r="E101">
+        <v>0.03422468241046102</v>
+      </c>
+      <c r="F101">
+        <v>-0.03279913927601953</v>
+      </c>
+      <c r="G101">
+        <v>0.052031518058383</v>
+      </c>
+      <c r="H101">
+        <v>-0.1006585258479074</v>
+      </c>
+      <c r="I101">
+        <v>0.02471842373619428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1145164478967154</v>
+        <v>0.04839997819569226</v>
       </c>
       <c r="C102">
-        <v>-0.1487532180015901</v>
+        <v>-0.1532602090044538</v>
       </c>
       <c r="D102">
-        <v>-0.07252633030055564</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09080044433159397</v>
+      </c>
+      <c r="E102">
+        <v>-0.02938826043588511</v>
+      </c>
+      <c r="F102">
+        <v>0.0615574811586015</v>
+      </c>
+      <c r="G102">
+        <v>0.009957980191950384</v>
+      </c>
+      <c r="H102">
+        <v>-0.05387536234037208</v>
+      </c>
+      <c r="I102">
+        <v>0.03205039756087995</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
